--- a/pincode_mumbai.xlsx
+++ b/pincode_mumbai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,11 +466,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>400067</t>
+          <t>400066</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -484,11 +484,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400061</t>
+          <t>400080</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -502,11 +502,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>400091</t>
+          <t>400082</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -520,11 +520,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>400095</t>
+          <t>400078</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -534,15 +534,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>400092</t>
+          <t>400033</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -556,11 +556,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>400050</t>
+          <t>400031</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -574,11 +574,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>400028</t>
+          <t>400030</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -592,11 +592,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>400025</t>
+          <t>400028</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -610,11 +610,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>400022</t>
+          <t>400025</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -628,11 +628,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>400033</t>
+          <t>400018</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -646,7 +646,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>400019</t>
+          <t>400001</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -664,11 +664,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>400031</t>
+          <t>400015</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -682,11 +682,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>400016</t>
+          <t>400014</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -700,11 +700,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>400015</t>
+          <t>400012</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -718,11 +718,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400014</t>
+          <t>400011</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -736,11 +736,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>400030</t>
+          <t>400010</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -754,11 +754,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>400012</t>
+          <t>400027</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -768,15 +768,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>400037</t>
+          <t>400079</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -786,15 +786,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>400017</t>
+          <t>400043</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -808,11 +808,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>400608</t>
+          <t>400088</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -826,11 +826,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>400601</t>
+          <t>400042</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -844,11 +844,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>400602</t>
+          <t>400094</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -862,11 +862,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>400603</t>
+          <t>400083</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -876,15 +876,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>400605</t>
+          <t>400095</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -894,15 +894,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>400607</t>
+          <t>400064</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -912,15 +912,15 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400606</t>
+          <t>400104</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -930,15 +930,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>400615</t>
+          <t>400061</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -948,15 +948,15 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>400610</t>
+          <t>400067</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
@@ -970,7 +970,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>400049</t>
+          <t>400091</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -988,11 +988,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>400098</t>
+          <t>400092</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -1006,11 +1006,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>400052</t>
+          <t>400103</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1020,15 +1020,15 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>400093</t>
+          <t>400610</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -1038,15 +1038,15 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>400060</t>
+          <t>400615</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>400102</t>
+          <t>400607</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -1074,15 +1074,15 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>400099</t>
+          <t>400101</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
@@ -1092,15 +1092,15 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>400051</t>
+          <t>400099</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -1110,15 +1110,15 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>400054</t>
+          <t>400093</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
@@ -1128,15 +1128,15 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>400055</t>
+          <t>400102</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -1146,15 +1146,15 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>400056</t>
+          <t>400063</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>400029</t>
+          <t>400069</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -1182,15 +1182,15 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>400087</t>
+          <t>400097</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -1200,15 +1200,15 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>400077</t>
+          <t>400065</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -1218,15 +1218,15 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>400076</t>
+          <t>400059</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -1236,15 +1236,15 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>400072</t>
+          <t>400060</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -1254,15 +1254,15 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>400071</t>
+          <t>400008</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -1272,15 +1272,15 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>400070</t>
+          <t>400009</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1290,15 +1290,15 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>400084</t>
+          <t>400034</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -1308,15 +1308,15 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>400086</t>
+          <t>400032</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1326,15 +1326,15 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>400024</t>
+          <t>400005</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -1344,15 +1344,15 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>400059</t>
+          <t>400021</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1362,15 +1362,15 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>400089</t>
+          <t>400026</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -1380,15 +1380,15 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>400007</t>
+          <t>400020</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -1398,15 +1398,15 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>400002</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>6</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>400008</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="55">
@@ -1416,15 +1416,15 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>400005</t>
+          <t>400003</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -1434,15 +1434,15 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>400010</t>
+          <t>400004</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -1452,15 +1452,15 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>400004</t>
+          <t>400006</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -1470,11 +1470,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>400003</t>
+          <t>400007</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1488,15 +1488,15 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>400011</t>
+          <t>400035</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1506,15 +1506,15 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>400002</t>
+          <t>400601</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -1524,11 +1524,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>400018</t>
+          <t>400081</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1542,15 +1542,15 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>400034</t>
+          <t>400605</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
@@ -1560,15 +1560,15 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>400006</t>
+          <t>400603</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -1578,15 +1578,15 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>400009</t>
+          <t>400608</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -1596,15 +1596,15 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>400021</t>
+          <t>400604</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
@@ -1614,15 +1614,15 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>400020</t>
+          <t>400606</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -1632,15 +1632,15 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>400026</t>
+          <t>400602</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -1650,15 +1650,15 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>400027</t>
+          <t>400074</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -1668,15 +1668,15 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>400032</t>
+          <t>400087</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -1686,15 +1686,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>400103</t>
+          <t>400024</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -1704,15 +1704,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>400101</t>
+          <t>400077</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -1722,15 +1722,15 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>400065</t>
+          <t>400076</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
@@ -1740,15 +1740,15 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>400064</t>
+          <t>400070</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74">
@@ -1758,15 +1758,15 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>400104</t>
+          <t>400071</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75">
@@ -1776,15 +1776,15 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>400063</t>
+          <t>400072</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76">
@@ -1794,15 +1794,15 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>400097</t>
+          <t>400075</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -1812,15 +1812,15 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>400604</t>
+          <t>400086</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78">
@@ -1830,15 +1830,15 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>400082</t>
+          <t>400084</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -1848,15 +1848,15 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>400083</t>
+          <t>400089</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -1866,15 +1866,15 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>400042</t>
+          <t>400017</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>400066</t>
+          <t>400054</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
@@ -1902,15 +1902,15 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>400081</t>
+          <t>400055</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
@@ -1920,15 +1920,15 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>400080</t>
+          <t>400051</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
@@ -1938,15 +1938,15 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>400078</t>
+          <t>400050</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85">
@@ -1956,15 +1956,15 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>400094</t>
+          <t>400049</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -1974,15 +1974,15 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>400079</t>
+          <t>400037</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87">
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>400075</t>
+          <t>400029</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2010,15 +2010,15 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>400043</t>
+          <t>400022</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -2028,15 +2028,15 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>400074</t>
+          <t>400019</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -2046,15 +2046,15 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>400088</t>
+          <t>400016</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -2068,11 +2068,47 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>400001</t>
+          <t>400056</t>
         </is>
       </c>
       <c r="D91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>400098</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>10</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>400052</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
